--- a/ConsoleApp/Excel/Todos.xlsx
+++ b/ConsoleApp/Excel/Todos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Id</t>
   </si>
@@ -632,6 +632,11 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df 
+ dfdgfd 
+ fggfd</t>
   </si>
 </sst>
 </file>
@@ -639,9 +644,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -663,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -671,14 +681,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +981,12 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B2:E202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3971,7 +3996,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E202"/>
+  <dimension ref="B1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3981,8 +4006,14 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="67.8157784598214" customWidth="1"/>
     <col min="5" max="5" width="11.0591812133789" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="H1" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -6798,6 +6829,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="H1:H4"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>